--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema5a-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema5a-Met.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Sema5a</t>
+  </si>
+  <si>
+    <t>Met</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Sema5a</t>
-  </si>
-  <si>
-    <t>Met</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.703141</v>
+        <v>1.5773775</v>
       </c>
       <c r="H2">
-        <v>1.406282</v>
+        <v>3.154755</v>
       </c>
       <c r="I2">
-        <v>0.06072384981785994</v>
+        <v>0.1167860788573942</v>
       </c>
       <c r="J2">
-        <v>0.04843113720817008</v>
+        <v>0.09944780588020806</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.180483</v>
+        <v>2.993584</v>
       </c>
       <c r="N2">
-        <v>6.360966</v>
+        <v>5.987168</v>
       </c>
       <c r="O2">
-        <v>0.06092186256078213</v>
+        <v>0.05975341067179143</v>
       </c>
       <c r="P2">
-        <v>0.05506293733437207</v>
+        <v>0.05276159080888739</v>
       </c>
       <c r="Q2">
-        <v>2.236327997103</v>
+        <v>4.72201204596</v>
       </c>
       <c r="R2">
-        <v>8.945311988412001</v>
+        <v>18.88804818384</v>
       </c>
       <c r="S2">
-        <v>0.003699410032765238</v>
+        <v>0.006978366530714097</v>
       </c>
       <c r="T2">
-        <v>0.002666760673125844</v>
+        <v>0.005247024440693203</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.703141</v>
+        <v>1.5773775</v>
       </c>
       <c r="H3">
-        <v>1.406282</v>
+        <v>3.154755</v>
       </c>
       <c r="I3">
-        <v>0.06072384981785994</v>
+        <v>0.1167860788573942</v>
       </c>
       <c r="J3">
-        <v>0.04843113720817008</v>
+        <v>0.09944780588020806</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.160829</v>
       </c>
       <c r="O3">
-        <v>0.01379682764696979</v>
+        <v>0.01437707027524159</v>
       </c>
       <c r="P3">
-        <v>0.01870495641971579</v>
+        <v>0.01904218747594478</v>
       </c>
       <c r="Q3">
-        <v>0.5064558212963334</v>
+        <v>1.1361476819825</v>
       </c>
       <c r="R3">
-        <v>3.038734927778</v>
+        <v>6.816886091895001</v>
       </c>
       <c r="S3">
-        <v>0.0008377964899974916</v>
+        <v>0.001679041662902662</v>
       </c>
       <c r="T3">
-        <v>0.0009059023108360972</v>
+        <v>0.001893703763642286</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.703141</v>
+        <v>1.5773775</v>
       </c>
       <c r="H4">
-        <v>1.406282</v>
+        <v>3.154755</v>
       </c>
       <c r="I4">
-        <v>0.06072384981785994</v>
+        <v>0.1167860788573942</v>
       </c>
       <c r="J4">
-        <v>0.04843113720817008</v>
+        <v>0.09944780588020806</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.55178</v>
+        <v>9.947454</v>
       </c>
       <c r="N4">
-        <v>13.65534</v>
+        <v>29.842362</v>
       </c>
       <c r="O4">
-        <v>0.08718893185938012</v>
+        <v>0.1985560799365424</v>
       </c>
       <c r="P4">
-        <v>0.1182058087874616</v>
+        <v>0.2629841842778907</v>
       </c>
       <c r="Q4">
-        <v>3.20054314098</v>
+        <v>15.690890121885</v>
       </c>
       <c r="R4">
-        <v>19.20325884588</v>
+        <v>94.14534073131001</v>
       </c>
       <c r="S4">
-        <v>0.005294447604008622</v>
+        <v>0.02318858600908412</v>
       </c>
       <c r="T4">
-        <v>0.005724841744188268</v>
+        <v>0.02615320010763254</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.703141</v>
+        <v>1.5773775</v>
       </c>
       <c r="H5">
-        <v>1.406282</v>
+        <v>3.154755</v>
       </c>
       <c r="I5">
-        <v>0.06072384981785994</v>
+        <v>0.1167860788573942</v>
       </c>
       <c r="J5">
-        <v>0.04843113720817008</v>
+        <v>0.09944780588020806</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.915598</v>
+        <v>33.8274285</v>
       </c>
       <c r="N5">
-        <v>75.83119599999999</v>
+        <v>67.65485700000001</v>
       </c>
       <c r="O5">
-        <v>0.7262698307979842</v>
+        <v>0.6752121293844308</v>
       </c>
       <c r="P5">
-        <v>0.6564236302062432</v>
+        <v>0.596204730060655</v>
       </c>
       <c r="Q5">
-        <v>26.660011493318</v>
+        <v>53.35862459875876</v>
       </c>
       <c r="R5">
-        <v>106.640045973272</v>
+        <v>213.434498395035</v>
       </c>
       <c r="S5">
-        <v>0.04410190013261934</v>
+        <v>0.07885537698775921</v>
       </c>
       <c r="T5">
-        <v>0.03179134290120366</v>
+        <v>0.05929125225993386</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.703141</v>
+        <v>1.5773775</v>
       </c>
       <c r="H6">
-        <v>1.406282</v>
+        <v>3.154755</v>
       </c>
       <c r="I6">
-        <v>0.06072384981785994</v>
+        <v>0.1167860788573942</v>
       </c>
       <c r="J6">
-        <v>0.04843113720817008</v>
+        <v>0.09944780588020806</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.51639</v>
+        <v>1.126386666666667</v>
       </c>
       <c r="N6">
-        <v>4.54917</v>
+        <v>3.37916</v>
       </c>
       <c r="O6">
-        <v>0.02904631251559729</v>
+        <v>0.02248323249608615</v>
       </c>
       <c r="P6">
-        <v>0.03937934311131445</v>
+        <v>0.02977866283320594</v>
       </c>
       <c r="Q6">
-        <v>1.06623598099</v>
+        <v>1.7767369843</v>
       </c>
       <c r="R6">
-        <v>6.39741588594</v>
+        <v>10.6604219058</v>
       </c>
       <c r="S6">
-        <v>0.001763803918959755</v>
+        <v>0.002625728563257046</v>
       </c>
       <c r="T6">
-        <v>0.001907186369391677</v>
+        <v>0.00296142268080883</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.703141</v>
+        <v>1.5773775</v>
       </c>
       <c r="H7">
-        <v>1.406282</v>
+        <v>3.154755</v>
       </c>
       <c r="I7">
-        <v>0.06072384981785994</v>
+        <v>0.1167860788573942</v>
       </c>
       <c r="J7">
-        <v>0.04843113720817008</v>
+        <v>0.09944780588020806</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.321411</v>
+        <v>1.483835</v>
       </c>
       <c r="N7">
-        <v>12.964233</v>
+        <v>4.451505</v>
       </c>
       <c r="O7">
-        <v>0.08277623461928646</v>
+        <v>0.02961807723590774</v>
       </c>
       <c r="P7">
-        <v>0.1122233241408928</v>
+        <v>0.03922864454341624</v>
       </c>
       <c r="Q7">
-        <v>3.038561251951</v>
+        <v>2.3405679427125</v>
       </c>
       <c r="R7">
-        <v>18.231367511706</v>
+        <v>14.043407656275</v>
       </c>
       <c r="S7">
-        <v>0.00502649163950949</v>
+        <v>0.003458979103677115</v>
       </c>
       <c r="T7">
-        <v>0.005435103209424526</v>
+        <v>0.003901202627497341</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.709612666666667</v>
+        <v>4.709612666666668</v>
       </c>
       <c r="H8">
         <v>14.128838</v>
       </c>
       <c r="I8">
-        <v>0.4067261221731595</v>
+        <v>0.3486909102463527</v>
       </c>
       <c r="J8">
-        <v>0.4865849749694636</v>
+        <v>0.4453854384054886</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.180483</v>
+        <v>2.993584</v>
       </c>
       <c r="N8">
-        <v>6.360966</v>
+        <v>5.987168</v>
       </c>
       <c r="O8">
-        <v>0.06092186256078213</v>
+        <v>0.05975341067179143</v>
       </c>
       <c r="P8">
-        <v>0.05506293733437207</v>
+        <v>0.05276159080888739</v>
       </c>
       <c r="Q8">
-        <v>14.978843022918</v>
+        <v>14.09862112513067</v>
       </c>
       <c r="R8">
-        <v>89.87305813750801</v>
+        <v>84.59172675078401</v>
       </c>
       <c r="S8">
-        <v>0.0247785129149131</v>
+        <v>0.02083547115747108</v>
       </c>
       <c r="T8">
-        <v>0.02679279798459058</v>
+        <v>0.02349924425338731</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.709612666666667</v>
+        <v>4.709612666666668</v>
       </c>
       <c r="H9">
         <v>14.128838</v>
       </c>
       <c r="I9">
-        <v>0.4067261221731595</v>
+        <v>0.3486909102463527</v>
       </c>
       <c r="J9">
-        <v>0.4865849749694636</v>
+        <v>0.4453854384054886</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>2.160829</v>
       </c>
       <c r="O9">
-        <v>0.01379682764696979</v>
+        <v>0.01437707027524159</v>
       </c>
       <c r="P9">
-        <v>0.01870495641971579</v>
+        <v>0.01904218747594478</v>
       </c>
       <c r="Q9">
-        <v>3.392222542966889</v>
+        <v>3.39222254296689</v>
       </c>
       <c r="R9">
         <v>30.530002886702</v>
       </c>
       <c r="S9">
-        <v>0.00561153020714346</v>
+        <v>0.005013153720949769</v>
       </c>
       <c r="T9">
-        <v>0.009101550751292316</v>
+        <v>0.008481113017173169</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.709612666666667</v>
+        <v>4.709612666666668</v>
       </c>
       <c r="H10">
         <v>14.128838</v>
       </c>
       <c r="I10">
-        <v>0.4067261221731595</v>
+        <v>0.3486909102463527</v>
       </c>
       <c r="J10">
-        <v>0.4865849749694636</v>
+        <v>0.4453854384054886</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.55178</v>
+        <v>9.947454</v>
       </c>
       <c r="N10">
-        <v>13.65534</v>
+        <v>29.842362</v>
       </c>
       <c r="O10">
-        <v>0.08718893185938012</v>
+        <v>0.1985560799365424</v>
       </c>
       <c r="P10">
-        <v>0.1182058087874616</v>
+        <v>0.2629841842778907</v>
       </c>
       <c r="Q10">
-        <v>21.43712074388</v>
+        <v>46.84865535948401</v>
       </c>
       <c r="R10">
-        <v>192.93408669492</v>
+        <v>421.6378982353561</v>
       </c>
       <c r="S10">
-        <v>0.03546201615158551</v>
+        <v>0.06923470024802053</v>
       </c>
       <c r="T10">
-        <v>0.0575171705100922</v>
+        <v>0.1171293262083182</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.709612666666667</v>
+        <v>4.709612666666668</v>
       </c>
       <c r="H11">
         <v>14.128838</v>
       </c>
       <c r="I11">
-        <v>0.4067261221731595</v>
+        <v>0.3486909102463527</v>
       </c>
       <c r="J11">
-        <v>0.4865849749694636</v>
+        <v>0.4453854384054886</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.915598</v>
+        <v>33.8274285</v>
       </c>
       <c r="N11">
-        <v>75.83119599999999</v>
+        <v>67.65485700000001</v>
       </c>
       <c r="O11">
-        <v>0.7262698307979842</v>
+        <v>0.6752121293844308</v>
       </c>
       <c r="P11">
-        <v>0.6564236302062432</v>
+        <v>0.596204730060655</v>
       </c>
       <c r="Q11">
-        <v>178.5677806050413</v>
+        <v>159.3140857443611</v>
       </c>
       <c r="R11">
-        <v>1071.406683630248</v>
+        <v>955.8845144661663</v>
       </c>
       <c r="S11">
-        <v>0.2953929119318208</v>
+        <v>0.2354403320044352</v>
       </c>
       <c r="T11">
-        <v>0.3194058756732693</v>
+        <v>0.2655409050774908</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.709612666666667</v>
+        <v>4.709612666666668</v>
       </c>
       <c r="H12">
         <v>14.128838</v>
       </c>
       <c r="I12">
-        <v>0.4067261221731595</v>
+        <v>0.3486909102463527</v>
       </c>
       <c r="J12">
-        <v>0.4865849749694636</v>
+        <v>0.4453854384054886</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.51639</v>
+        <v>1.126386666666667</v>
       </c>
       <c r="N12">
-        <v>4.54917</v>
+        <v>3.37916</v>
       </c>
       <c r="O12">
-        <v>0.02904631251559729</v>
+        <v>0.02248323249608615</v>
       </c>
       <c r="P12">
-        <v>0.03937934311131445</v>
+        <v>0.02977866283320594</v>
       </c>
       <c r="Q12">
-        <v>7.141609551606667</v>
+        <v>5.304844912897779</v>
       </c>
       <c r="R12">
-        <v>64.27448596446</v>
+        <v>47.74360421608</v>
       </c>
       <c r="S12">
-        <v>0.01181389405289859</v>
+        <v>0.007839698804340657</v>
       </c>
       <c r="T12">
-        <v>0.01916139668213286</v>
+        <v>0.01326298280109666</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.709612666666667</v>
+        <v>4.709612666666668</v>
       </c>
       <c r="H13">
         <v>14.128838</v>
       </c>
       <c r="I13">
-        <v>0.4067261221731595</v>
+        <v>0.3486909102463527</v>
       </c>
       <c r="J13">
-        <v>0.4865849749694636</v>
+        <v>0.4453854384054886</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.321411</v>
+        <v>1.483835</v>
       </c>
       <c r="N13">
-        <v>12.964233</v>
+        <v>4.451505</v>
       </c>
       <c r="O13">
-        <v>0.08277623461928646</v>
+        <v>0.02961807723590774</v>
       </c>
       <c r="P13">
-        <v>0.1122233241408928</v>
+        <v>0.03922864454341624</v>
       </c>
       <c r="Q13">
-        <v>20.35217198347267</v>
+        <v>6.988288111243334</v>
       </c>
       <c r="R13">
-        <v>183.169547851254</v>
+        <v>62.89459300119001</v>
       </c>
       <c r="S13">
-        <v>0.03366725691479801</v>
+        <v>0.01032755431113545</v>
       </c>
       <c r="T13">
-        <v>0.05460618336808633</v>
+        <v>0.01747186704802252</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.9980915</v>
+        <v>7.219564</v>
       </c>
       <c r="H14">
-        <v>9.996183</v>
+        <v>14.439128</v>
       </c>
       <c r="I14">
-        <v>0.4316393975346656</v>
+        <v>0.5345230108962531</v>
       </c>
       <c r="J14">
-        <v>0.3442599069254795</v>
+        <v>0.4551667557143033</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.180483</v>
+        <v>2.993584</v>
       </c>
       <c r="N14">
-        <v>6.360966</v>
+        <v>5.987168</v>
       </c>
       <c r="O14">
-        <v>0.06092186256078213</v>
+        <v>0.05975341067179143</v>
       </c>
       <c r="P14">
-        <v>0.05506293733437207</v>
+        <v>0.05276159080888739</v>
       </c>
       <c r="Q14">
-        <v>15.8963450481945</v>
+        <v>21.612371277376</v>
       </c>
       <c r="R14">
-        <v>63.585380192778</v>
+        <v>86.449485109504</v>
       </c>
       <c r="S14">
-        <v>0.0262962760524257</v>
+        <v>0.03193957298360626</v>
       </c>
       <c r="T14">
-        <v>0.01895596168177444</v>
+        <v>0.02401532211480687</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.9980915</v>
+        <v>7.219564</v>
       </c>
       <c r="H15">
-        <v>9.996183</v>
+        <v>14.439128</v>
       </c>
       <c r="I15">
-        <v>0.4316393975346656</v>
+        <v>0.5345230108962531</v>
       </c>
       <c r="J15">
-        <v>0.3442599069254795</v>
+        <v>0.4551667557143033</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>2.160829</v>
       </c>
       <c r="O15">
-        <v>0.01379682764696979</v>
+        <v>0.01437707027524159</v>
       </c>
       <c r="P15">
-        <v>0.01870495641971579</v>
+        <v>0.01904218747594478</v>
       </c>
       <c r="Q15">
-        <v>3.6000070192845</v>
+        <v>5.200081086185333</v>
       </c>
       <c r="R15">
-        <v>21.600042115707</v>
+        <v>31.200486517112</v>
       </c>
       <c r="S15">
-        <v>0.005955254373427659</v>
+        <v>0.007684874891389155</v>
       </c>
       <c r="T15">
-        <v>0.006439366556096509</v>
+        <v>0.008667370695129323</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.9980915</v>
+        <v>7.219564</v>
       </c>
       <c r="H16">
-        <v>9.996183</v>
+        <v>14.439128</v>
       </c>
       <c r="I16">
-        <v>0.4316393975346656</v>
+        <v>0.5345230108962531</v>
       </c>
       <c r="J16">
-        <v>0.3442599069254795</v>
+        <v>0.4551667557143033</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.55178</v>
+        <v>9.947454</v>
       </c>
       <c r="N16">
-        <v>13.65534</v>
+        <v>29.842362</v>
       </c>
       <c r="O16">
-        <v>0.08718893185938012</v>
+        <v>0.1985560799365424</v>
       </c>
       <c r="P16">
-        <v>0.1182058087874616</v>
+        <v>0.2629841842778907</v>
       </c>
       <c r="Q16">
-        <v>22.75021292787</v>
+        <v>71.816280790056</v>
       </c>
       <c r="R16">
-        <v>136.50127756722</v>
+        <v>430.897684740336</v>
       </c>
       <c r="S16">
-        <v>0.03763417801947384</v>
+        <v>0.1061327936794377</v>
       </c>
       <c r="T16">
-        <v>0.04069352073122255</v>
+        <v>0.11970165796194</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.9980915</v>
+        <v>7.219564</v>
       </c>
       <c r="H17">
-        <v>9.996183</v>
+        <v>14.439128</v>
       </c>
       <c r="I17">
-        <v>0.4316393975346656</v>
+        <v>0.5345230108962531</v>
       </c>
       <c r="J17">
-        <v>0.3442599069254795</v>
+        <v>0.4551667557143033</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>37.915598</v>
+        <v>33.8274285</v>
       </c>
       <c r="N17">
-        <v>75.83119599999999</v>
+        <v>67.65485700000001</v>
       </c>
       <c r="O17">
-        <v>0.7262698307979842</v>
+        <v>0.6752121293844308</v>
       </c>
       <c r="P17">
-        <v>0.6564236302062432</v>
+        <v>0.596204730060655</v>
       </c>
       <c r="Q17">
-        <v>189.505628081217</v>
+        <v>244.219285011174</v>
       </c>
       <c r="R17">
-        <v>758.022512324868</v>
+        <v>976.8771400446961</v>
       </c>
       <c r="S17">
-        <v>0.3134866722132454</v>
+        <v>0.3609164203922363</v>
       </c>
       <c r="T17">
-        <v>0.2259803378384867</v>
+        <v>0.2713725727232303</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.9980915</v>
+        <v>7.219564</v>
       </c>
       <c r="H18">
-        <v>9.996183</v>
+        <v>14.439128</v>
       </c>
       <c r="I18">
-        <v>0.4316393975346656</v>
+        <v>0.5345230108962531</v>
       </c>
       <c r="J18">
-        <v>0.3442599069254795</v>
+        <v>0.4551667557143033</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.51639</v>
+        <v>1.126386666666667</v>
       </c>
       <c r="N18">
-        <v>4.54917</v>
+        <v>3.37916</v>
       </c>
       <c r="O18">
-        <v>0.02904631251559729</v>
+        <v>0.02248323249608615</v>
       </c>
       <c r="P18">
-        <v>0.03937934311131445</v>
+        <v>0.02977866283320594</v>
       </c>
       <c r="Q18">
-        <v>7.579055969685001</v>
+        <v>8.132020628746666</v>
       </c>
       <c r="R18">
-        <v>45.47433581811</v>
+        <v>48.79212377248</v>
       </c>
       <c r="S18">
-        <v>0.01253753283483603</v>
+        <v>0.01201780512848845</v>
       </c>
       <c r="T18">
-        <v>0.01355672899428764</v>
+        <v>0.01355425735130045</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.9980915</v>
+        <v>7.219564</v>
       </c>
       <c r="H19">
-        <v>9.996183</v>
+        <v>14.439128</v>
       </c>
       <c r="I19">
-        <v>0.4316393975346656</v>
+        <v>0.5345230108962531</v>
       </c>
       <c r="J19">
-        <v>0.3442599069254795</v>
+        <v>0.4551667557143033</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.321411</v>
+        <v>1.483835</v>
       </c>
       <c r="N19">
-        <v>12.964233</v>
+        <v>4.451505</v>
       </c>
       <c r="O19">
-        <v>0.08277623461928646</v>
+        <v>0.02961807723590774</v>
       </c>
       <c r="P19">
-        <v>0.1122233241408928</v>
+        <v>0.03922864454341624</v>
       </c>
       <c r="Q19">
-        <v>21.5988075871065</v>
+        <v>10.71264174794</v>
       </c>
       <c r="R19">
-        <v>129.592845522639</v>
+        <v>64.27585048764</v>
       </c>
       <c r="S19">
-        <v>0.03572948404125693</v>
+        <v>0.01583154382109518</v>
       </c>
       <c r="T19">
-        <v>0.03863399112361168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1.168476666666667</v>
-      </c>
-      <c r="H20">
-        <v>3.50543</v>
-      </c>
-      <c r="I20">
-        <v>0.1009106304743149</v>
-      </c>
-      <c r="J20">
-        <v>0.1207239808968867</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>3.180483</v>
-      </c>
-      <c r="N20">
-        <v>6.360966</v>
-      </c>
-      <c r="O20">
-        <v>0.06092186256078213</v>
-      </c>
-      <c r="P20">
-        <v>0.05506293733437207</v>
-      </c>
-      <c r="Q20">
-        <v>3.71632017423</v>
-      </c>
-      <c r="R20">
-        <v>22.29792104538</v>
-      </c>
-      <c r="S20">
-        <v>0.006147663560678085</v>
-      </c>
-      <c r="T20">
-        <v>0.006647416994881204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.168476666666667</v>
-      </c>
-      <c r="H21">
-        <v>3.50543</v>
-      </c>
-      <c r="I21">
-        <v>0.1009106304743149</v>
-      </c>
-      <c r="J21">
-        <v>0.1207239808968867</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.7202763333333334</v>
-      </c>
-      <c r="N21">
-        <v>2.160829</v>
-      </c>
-      <c r="O21">
-        <v>0.01379682764696979</v>
-      </c>
-      <c r="P21">
-        <v>0.01870495641971579</v>
-      </c>
-      <c r="Q21">
-        <v>0.8416260890522222</v>
-      </c>
-      <c r="R21">
-        <v>7.57463480147</v>
-      </c>
-      <c r="S21">
-        <v>0.00139224657640118</v>
-      </c>
-      <c r="T21">
-        <v>0.002258136801490868</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1.168476666666667</v>
-      </c>
-      <c r="H22">
-        <v>3.50543</v>
-      </c>
-      <c r="I22">
-        <v>0.1009106304743149</v>
-      </c>
-      <c r="J22">
-        <v>0.1207239808968867</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>4.55178</v>
-      </c>
-      <c r="N22">
-        <v>13.65534</v>
-      </c>
-      <c r="O22">
-        <v>0.08718893185938012</v>
-      </c>
-      <c r="P22">
-        <v>0.1182058087874616</v>
-      </c>
-      <c r="Q22">
-        <v>5.3186487218</v>
-      </c>
-      <c r="R22">
-        <v>47.8678384962</v>
-      </c>
-      <c r="S22">
-        <v>0.008798290084312129</v>
-      </c>
-      <c r="T22">
-        <v>0.01427027580195856</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1.168476666666667</v>
-      </c>
-      <c r="H23">
-        <v>3.50543</v>
-      </c>
-      <c r="I23">
-        <v>0.1009106304743149</v>
-      </c>
-      <c r="J23">
-        <v>0.1207239808968867</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>37.915598</v>
-      </c>
-      <c r="N23">
-        <v>75.83119599999999</v>
-      </c>
-      <c r="O23">
-        <v>0.7262698307979842</v>
-      </c>
-      <c r="P23">
-        <v>0.6564236302062432</v>
-      </c>
-      <c r="Q23">
-        <v>44.30349156571332</v>
-      </c>
-      <c r="R23">
-        <v>265.82094939428</v>
-      </c>
-      <c r="S23">
-        <v>0.07328834652029859</v>
-      </c>
-      <c r="T23">
-        <v>0.07924607379328352</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1.168476666666667</v>
-      </c>
-      <c r="H24">
-        <v>3.50543</v>
-      </c>
-      <c r="I24">
-        <v>0.1009106304743149</v>
-      </c>
-      <c r="J24">
-        <v>0.1207239808968867</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1.51639</v>
-      </c>
-      <c r="N24">
-        <v>4.54917</v>
-      </c>
-      <c r="O24">
-        <v>0.02904631251559729</v>
-      </c>
-      <c r="P24">
-        <v>0.03937934311131445</v>
-      </c>
-      <c r="Q24">
-        <v>1.771866332566667</v>
-      </c>
-      <c r="R24">
-        <v>15.9467969931</v>
-      </c>
-      <c r="S24">
-        <v>0.002931081708902906</v>
-      </c>
-      <c r="T24">
-        <v>0.004754031065502273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.168476666666667</v>
-      </c>
-      <c r="H25">
-        <v>3.50543</v>
-      </c>
-      <c r="I25">
-        <v>0.1009106304743149</v>
-      </c>
-      <c r="J25">
-        <v>0.1207239808968867</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>4.321411</v>
-      </c>
-      <c r="N25">
-        <v>12.964233</v>
-      </c>
-      <c r="O25">
-        <v>0.08277623461928646</v>
-      </c>
-      <c r="P25">
-        <v>0.1122233241408928</v>
-      </c>
-      <c r="Q25">
-        <v>5.049467920576666</v>
-      </c>
-      <c r="R25">
-        <v>45.44521128519</v>
-      </c>
-      <c r="S25">
-        <v>0.008353002023722007</v>
-      </c>
-      <c r="T25">
-        <v>0.01354804643977027</v>
+        <v>0.01785557486789637</v>
       </c>
     </row>
   </sheetData>
